--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suli\Files\Webfejlesztes\fake_twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DCD5560-6D95-4C4E-A745-FEA734938536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B16A97F-0223-4D55-BB06-7AC9BC5429CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
   </bookViews>
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -277,6 +277,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,7 +601,7 @@
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +613,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -625,14 +628,14 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="3"/>
@@ -641,13 +644,13 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3"/>
@@ -655,7 +658,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -743,7 +746,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -759,13 +762,13 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3"/>
@@ -818,7 +821,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
@@ -833,7 +836,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -893,7 +896,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>35</v>
       </c>

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suli\Files\Webfejlesztes\fake_twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B16A97F-0223-4D55-BB06-7AC9BC5429CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0295EC5B-9692-48BA-B986-CA36FF83C3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,13 +659,13 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3"/>
@@ -673,14 +673,14 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3"/>
@@ -851,14 +851,14 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="3"/>
@@ -896,14 +896,14 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="3"/>

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suli\Files\Webfejlesztes\fake_twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0295EC5B-9692-48BA-B986-CA36FF83C3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA6E16F-B7BC-4136-ADFE-196A747E2D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +199,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +228,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -248,12 +260,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -282,10 +295,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Jó" xfId="1" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Rossz" xfId="3" builtinId="27"/>
     <cellStyle name="Semleges" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -601,7 +618,7 @@
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,13 +646,13 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="3"/>
@@ -644,13 +661,13 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3"/>
@@ -777,13 +794,13 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="3"/>
@@ -822,13 +839,13 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="3"/>
@@ -836,14 +853,14 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="3"/>
@@ -866,14 +883,14 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="3"/>

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suli\Files\Webfejlesztes\fake_twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA6E16F-B7BC-4136-ADFE-196A747E2D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89021D0-4E9B-4DCC-B0F7-1E058C42CC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
   </bookViews>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A73AB23-92EF-4D52-BCD5-DB041B9702FA}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,13 +749,13 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="3"/>
@@ -948,6 +948,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="2">
+        <f>SUM(C3:C22)</f>
         <v>40</v>
       </c>
       <c r="D23" s="3"/>

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suli\Files\Webfejlesztes\fake_twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89021D0-4E9B-4DCC-B0F7-1E058C42CC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549F7EF-99E3-462E-8441-074069A04E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,13 +734,13 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3"/>
@@ -764,13 +764,13 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3"/>
@@ -779,13 +779,13 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3"/>
@@ -809,13 +809,13 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="3"/>
@@ -959,7 +959,10 @@
     </row>
     <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3">
+        <f>SUM(C5:C8,C10,C12:C13,C17:C18,C20:C22)</f>
+        <v>25</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suli\Files\Webfejlesztes\fake_twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549F7EF-99E3-462E-8441-074069A04E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA62DD0F-7811-495C-8CAC-676B3053E0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,13 +646,13 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="3"/>

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suli\Files\Webfejlesztes\fake_twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA62DD0F-7811-495C-8CAC-676B3053E0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEEEB5A-31ED-4E38-A0C0-5230EB7CCF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Elem</t>
   </si>
@@ -158,6 +158,27 @@
   </si>
   <si>
     <t>Min. elérendő a peer-review-k során:</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>input van</t>
+  </si>
+  <si>
+    <t>init van csak</t>
+  </si>
+  <si>
+    <t>U nincs</t>
+  </si>
+  <si>
+    <t>kicsit bugos</t>
+  </si>
+  <si>
+    <t>telefonos menü nincs</t>
+  </si>
+  <si>
+    <t>datet kellene</t>
   </si>
 </sst>
 </file>
@@ -277,9 +298,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -296,6 +314,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -617,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A73AB23-92EF-4D52-BCD5-DB041B9702FA}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,13 +667,13 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="3"/>
@@ -661,13 +682,13 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3"/>
@@ -676,13 +697,13 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3"/>
@@ -691,13 +712,13 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3"/>
@@ -706,13 +727,13 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -728,19 +749,21 @@
       <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3"/>
@@ -749,13 +772,13 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="3"/>
@@ -764,16 +787,18 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -788,19 +813,21 @@
       <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>2</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="3"/>
@@ -809,58 +836,64 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>4</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="3"/>
@@ -869,13 +902,13 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="3"/>
@@ -884,13 +917,13 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="3"/>
@@ -899,13 +932,13 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="3"/>
@@ -914,28 +947,30 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>2</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>6</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="3"/>
@@ -959,10 +994,7 @@
     </row>
     <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="3">
-        <f>SUM(C5:C8,C10,C12:C13,C17:C18,C20:C22)</f>
-        <v>25</v>
-      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -970,10 +1002,10 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>20</v>
       </c>
       <c r="D25" s="3"/>

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suli\Files\Webfejlesztes\fake_twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEEEB5A-31ED-4E38-A0C0-5230EB7CCF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA878DE-0CD1-4106-93BB-23242ABF5B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
   </bookViews>
@@ -639,14 +639,14 @@
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="79.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="72.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="79.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -740,13 +740,13 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="3" t="s">

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suli\Files\Webfejlesztes\fake_twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA878DE-0CD1-4106-93BB-23242ABF5B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C852A9D9-EFBE-4A01-B27E-620B79C8E122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
+    <workbookView xWindow="4440" yWindow="1095" windowWidth="21630" windowHeight="11310" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Elem</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>datet kellene</t>
+  </si>
+  <si>
+    <t>ngif ngfor</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -301,24 +304,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Jó" xfId="1" builtinId="26"/>
@@ -638,13 +638,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A73AB23-92EF-4D52-BCD5-DB041B9702FA}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="79.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="91.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="79.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="12.7109375" style="1" customWidth="1"/>
@@ -667,13 +667,13 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="3"/>
@@ -682,13 +682,13 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3"/>
@@ -697,7 +697,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6">
@@ -711,11 +711,11 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -727,23 +727,23 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5"/>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -757,10 +757,10 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -772,28 +772,30 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -804,16 +806,16 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="3"/>
@@ -821,13 +823,13 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="3"/>
@@ -836,13 +838,13 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -853,13 +855,13 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -870,13 +872,13 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -886,11 +888,11 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -902,10 +904,10 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -917,10 +919,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>4</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -932,13 +934,13 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="3"/>
@@ -947,10 +949,10 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>2</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -963,14 +965,14 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <v>6</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="3"/>

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suli\Files\Webfejlesztes\fake_twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C852A9D9-EFBE-4A01-B27E-620B79C8E122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F140EF-08C9-4F7B-8851-BDAEAD166756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1095" windowWidth="21630" windowHeight="11310" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Elem</t>
   </si>
@@ -160,28 +160,7 @@
     <t>Min. elérendő a peer-review-k során:</t>
   </si>
   <si>
-    <t>7-8</t>
-  </si>
-  <si>
-    <t>input van</t>
-  </si>
-  <si>
-    <t>init van csak</t>
-  </si>
-  <si>
-    <t>U nincs</t>
-  </si>
-  <si>
-    <t>kicsit bugos</t>
-  </si>
-  <si>
-    <t>telefonos menü nincs</t>
-  </si>
-  <si>
     <t>datet kellene</t>
-  </si>
-  <si>
-    <t>ngif ngfor</t>
   </si>
 </sst>
 </file>
@@ -638,20 +617,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A73AB23-92EF-4D52-BCD5-DB041B9702FA}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="91.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="79.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="91.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="79.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -666,7 +645,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -681,7 +660,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
@@ -696,7 +675,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
@@ -711,7 +690,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
@@ -726,7 +705,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
@@ -739,7 +718,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
@@ -749,14 +728,12 @@
       <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
@@ -771,7 +748,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
@@ -781,14 +758,12 @@
       <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -798,31 +773,27 @@
       <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
@@ -837,7 +808,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
@@ -848,13 +819,13 @@
         <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
@@ -864,14 +835,12 @@
       <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
@@ -881,14 +850,12 @@
       <c r="D16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
@@ -903,7 +870,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>29</v>
       </c>
@@ -918,7 +885,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
@@ -933,7 +900,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>33</v>
       </c>
@@ -948,7 +915,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
         <v>35</v>
       </c>
@@ -958,14 +925,12 @@
       <c r="D21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
         <v>37</v>
       </c>
@@ -980,7 +945,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
@@ -994,7 +959,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1003,7 +968,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suli\Files\Webfejlesztes\fake_twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F140EF-08C9-4F7B-8851-BDAEAD166756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640DBB86-04F1-4357-BFBE-21CD9FAEB2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Elem</t>
   </si>
@@ -158,16 +158,13 @@
   </si>
   <si>
     <t>Min. elérendő a peer-review-k során:</t>
-  </si>
-  <si>
-    <t>datet kellene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,15 +199,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,11 +221,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -263,13 +248,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -294,15 +278,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Jó" xfId="1" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Rossz" xfId="3" builtinId="27"/>
     <cellStyle name="Semleges" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -618,7 +597,7 @@
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,18 +788,16 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suli\Files\Webfejlesztes\fake_twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640DBB86-04F1-4357-BFBE-21CD9FAEB2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39211CEA-AA23-4FD0-9AA2-525993160977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{C023ABD7-0EEF-4DA5-90CE-1E10D46CB121}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A73AB23-92EF-4D52-BCD5-DB041B9702FA}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,13 +655,13 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3"/>
